--- a/sorting/sorting times.xlsx
+++ b/sorting/sorting times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolaq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolaq\code\PycharmProjects\AlgoLabs4\sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EE21AF-891F-4454-8998-34F6832209CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C73862-E2E4-4E7F-BF7D-7D0D2A4762EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F4EF7848-2AE1-4045-8F40-E5F3D7016F72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F4EF7848-2AE1-4045-8F40-E5F3D7016F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>bubble</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>quicksort</t>
+  </si>
+  <si>
+    <t>mergesort</t>
   </si>
 </sst>
 </file>
@@ -564,6 +567,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E116-4A4D-9BCD-3F82D3B30F3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.12485694885253E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.432468891143798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4715335369110099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.150734424590993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89F9-4BC8-8C82-218230ABC4A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,20 +1731,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4530A8E-451F-43C1-97BE-21EE655CED5A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1663,8 +1756,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1680,8 +1776,11 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1697,8 +1796,11 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1714,8 +1816,11 @@
       <c r="E4">
         <v>1.0313987731933501E-3</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -1731,8 +1836,11 @@
       <c r="E5">
         <v>1.7999410629272398E-2</v>
       </c>
+      <c r="F5">
+        <v>3.12485694885253E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -1748,21 +1856,30 @@
       <c r="E6">
         <v>0.24096632003784099</v>
       </c>
+      <c r="F6">
+        <v>0.432468891143798</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000000</v>
       </c>
       <c r="E7">
         <v>3.6613905429839999</v>
       </c>
+      <c r="F7">
+        <v>5.4715335369110099</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000000</v>
       </c>
       <c r="E8">
         <v>54.879033088683997</v>
+      </c>
+      <c r="F8">
+        <v>74.150734424590993</v>
       </c>
     </row>
   </sheetData>

--- a/sorting/sorting times.xlsx
+++ b/sorting/sorting times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolaq\code\PycharmProjects\AlgoLabs4\sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C73862-E2E4-4E7F-BF7D-7D0D2A4762EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884B5D7-CDDE-4E43-85F5-163F9C61D0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F4EF7848-2AE1-4045-8F40-E5F3D7016F72}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>bubble</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>mergesort</t>
+  </si>
+  <si>
+    <t>heapsort</t>
   </si>
 </sst>
 </file>
@@ -658,6 +661,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-89F9-4BC8-8C82-218230ABC4A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5203227996826098E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.149059057235717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98028254508972101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.2232377529144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.878851413726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4E2-4A94-B0A2-BA8733EB5DAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -859,7 +953,487 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$38:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$38:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.6613905429839999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.879033088683997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BDD-45A2-AD20-598814F0D4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$38:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$38:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.4715335369110099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.150734424590993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BDD-45A2-AD20-598814F0D4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$38:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$38:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.2232377529144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.878851413726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7BDD-45A2-AD20-598814F0D4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1037741695"/>
+        <c:axId val="1037736287"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1037741695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037736287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037736287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037741695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1393,6 +1967,500 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1426,6 +2494,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873E4A93-5224-4914-87F5-0CC6866CD1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1731,19 +2835,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4530A8E-451F-43C1-97BE-21EE655CED5A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.77734375" customWidth="1"/>
+    <col min="2" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1759,8 +2863,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1779,8 +2886,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1799,8 +2909,11 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1819,8 +2932,11 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>2.5203227996826098E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -1839,8 +2955,11 @@
       <c r="F5">
         <v>3.12485694885253E-2</v>
       </c>
+      <c r="G5">
+        <v>0.149059057235717</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -1859,8 +2978,11 @@
       <c r="F6">
         <v>0.432468891143798</v>
       </c>
+      <c r="G6">
+        <v>0.98028254508972101</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000000</v>
       </c>
@@ -1870,8 +2992,11 @@
       <c r="F7">
         <v>5.4715335369110099</v>
       </c>
+      <c r="G7">
+        <v>13.2232377529144</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000000</v>
       </c>
@@ -1880,6 +3005,48 @@
       </c>
       <c r="F8">
         <v>74.150734424590993</v>
+      </c>
+      <c r="G8">
+        <v>119.878851413726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1000000</v>
+      </c>
+      <c r="B38">
+        <v>3.6613905429839999</v>
+      </c>
+      <c r="C38">
+        <v>5.4715335369110099</v>
+      </c>
+      <c r="D38">
+        <v>13.2232377529144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10000000</v>
+      </c>
+      <c r="B39">
+        <v>54.879033088683997</v>
+      </c>
+      <c r="C39">
+        <v>74.150734424590993</v>
+      </c>
+      <c r="D39">
+        <v>119.878851413726</v>
       </c>
     </row>
   </sheetData>
